--- a/mbrMoPvt_73.xlsx
+++ b/mbrMoPvt_73.xlsx
@@ -645,112 +645,112 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>7408</v>
+        <v>9096.879999999999</v>
       </c>
       <c r="C2">
-        <v>7408</v>
+        <v>9555.9</v>
       </c>
       <c r="D2">
-        <v>7408</v>
+        <v>11448.87</v>
       </c>
       <c r="E2">
-        <v>7408</v>
+        <v>10736.02</v>
       </c>
       <c r="F2">
-        <v>7408</v>
+        <v>11519.4</v>
       </c>
       <c r="G2">
-        <v>7408</v>
+        <v>10373.48</v>
       </c>
       <c r="H2">
-        <v>7806</v>
+        <v>10563.97</v>
       </c>
       <c r="I2">
-        <v>7806</v>
+        <v>11734.78</v>
       </c>
       <c r="J2">
-        <v>7806</v>
+        <v>9550.809999999999</v>
       </c>
       <c r="K2">
-        <v>7302</v>
+        <v>9164.41</v>
       </c>
       <c r="L2">
-        <v>7302</v>
+        <v>8822.790000000001</v>
       </c>
       <c r="M2">
-        <v>7302</v>
+        <v>8618.709999999999</v>
       </c>
       <c r="N2">
-        <v>7418</v>
+        <v>9352.99</v>
       </c>
       <c r="O2">
-        <v>7418</v>
+        <v>9633.309999999999</v>
       </c>
       <c r="P2">
-        <v>7418</v>
+        <v>8084.59</v>
       </c>
       <c r="Q2">
-        <v>6967</v>
+        <v>7347.66</v>
       </c>
       <c r="R2">
-        <v>6967</v>
+        <v>8074.35</v>
       </c>
       <c r="S2">
-        <v>6967</v>
+        <v>9530.49</v>
       </c>
       <c r="T2">
-        <v>6911</v>
+        <v>9689.76</v>
       </c>
       <c r="U2">
-        <v>6911</v>
+        <v>10514.52</v>
       </c>
       <c r="V2">
-        <v>6911</v>
+        <v>9675.99</v>
       </c>
       <c r="W2">
-        <v>6885</v>
+        <v>10246.4</v>
       </c>
       <c r="X2">
-        <v>6885</v>
+        <v>9219.73</v>
       </c>
       <c r="Y2">
-        <v>6885</v>
+        <v>9949.6</v>
       </c>
       <c r="Z2">
-        <v>7093</v>
+        <v>11268.86</v>
       </c>
       <c r="AA2">
-        <v>7093</v>
+        <v>9981.370000000001</v>
       </c>
       <c r="AB2">
-        <v>7093</v>
+        <v>10647.01</v>
       </c>
       <c r="AC2">
-        <v>6977</v>
+        <v>10914.25</v>
       </c>
       <c r="AD2">
-        <v>6977</v>
+        <v>10987.7</v>
       </c>
       <c r="AE2">
-        <v>6977</v>
+        <v>11409.99</v>
       </c>
       <c r="AF2">
-        <v>6859</v>
+        <v>10257.91</v>
       </c>
       <c r="AG2">
-        <v>6859</v>
+        <v>10984.65</v>
       </c>
       <c r="AH2">
-        <v>6859</v>
+        <v>9387.780000000001</v>
       </c>
       <c r="AI2">
-        <v>6859</v>
+        <v>1873.96</v>
       </c>
       <c r="AJ2">
-        <v>6859</v>
+        <v>6.62</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -758,112 +758,112 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>41056</v>
+        <v>10267.24</v>
       </c>
       <c r="C3">
-        <v>41056</v>
+        <v>10295.27</v>
       </c>
       <c r="D3">
-        <v>40975</v>
+        <v>11445.26</v>
       </c>
       <c r="E3">
-        <v>41810</v>
+        <v>10959</v>
       </c>
       <c r="F3">
-        <v>41810</v>
+        <v>11525.94</v>
       </c>
       <c r="G3">
-        <v>41756</v>
+        <v>10698.49</v>
       </c>
       <c r="H3">
-        <v>41903</v>
+        <v>10425.59</v>
       </c>
       <c r="I3">
-        <v>41903</v>
+        <v>10523.29</v>
       </c>
       <c r="J3">
-        <v>41868</v>
+        <v>10493.84</v>
       </c>
       <c r="K3">
-        <v>41852</v>
+        <v>11449.13</v>
       </c>
       <c r="L3">
-        <v>41852</v>
+        <v>10269.13</v>
       </c>
       <c r="M3">
-        <v>41762</v>
+        <v>10397.77</v>
       </c>
       <c r="N3">
-        <v>52918</v>
+        <v>10369.19</v>
       </c>
       <c r="O3">
-        <v>52918</v>
+        <v>10793.49</v>
       </c>
       <c r="P3">
-        <v>52863</v>
+        <v>9712.809999999999</v>
       </c>
       <c r="Q3">
-        <v>52421</v>
+        <v>7549.51</v>
       </c>
       <c r="R3">
-        <v>52421</v>
+        <v>8505.02</v>
       </c>
       <c r="S3">
-        <v>52366</v>
+        <v>9812.18</v>
       </c>
       <c r="T3">
-        <v>52120</v>
+        <v>10762.75</v>
       </c>
       <c r="U3">
-        <v>52120</v>
+        <v>10144.62</v>
       </c>
       <c r="V3">
-        <v>52073</v>
+        <v>10647.59</v>
       </c>
       <c r="W3">
-        <v>51739</v>
+        <v>11058.01</v>
       </c>
       <c r="X3">
-        <v>51739</v>
+        <v>10186.24</v>
       </c>
       <c r="Y3">
-        <v>51551</v>
+        <v>11340.13</v>
       </c>
       <c r="Z3">
-        <v>43542</v>
+        <v>9638.93</v>
       </c>
       <c r="AA3">
-        <v>43542</v>
+        <v>9889.030000000001</v>
       </c>
       <c r="AB3">
-        <v>43460</v>
+        <v>11234.27</v>
       </c>
       <c r="AC3">
-        <v>44292</v>
+        <v>11289.39</v>
       </c>
       <c r="AD3">
-        <v>44292</v>
+        <v>10346.34</v>
       </c>
       <c r="AE3">
-        <v>44230</v>
+        <v>10873.73</v>
       </c>
       <c r="AF3">
-        <v>44711</v>
+        <v>10943.56</v>
       </c>
       <c r="AG3">
-        <v>44711</v>
+        <v>10643.18</v>
       </c>
       <c r="AH3">
-        <v>44158</v>
+        <v>9513.559999999999</v>
       </c>
       <c r="AI3">
-        <v>44199</v>
+        <v>2422.47</v>
       </c>
       <c r="AJ3">
-        <v>44301</v>
+        <v>3.22</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -871,112 +871,112 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>60255</v>
+        <v>9976.629999999999</v>
       </c>
       <c r="C4">
-        <v>60255</v>
+        <v>9814.389999999999</v>
       </c>
       <c r="D4">
-        <v>60255</v>
+        <v>10501.03</v>
       </c>
       <c r="E4">
-        <v>59976</v>
+        <v>10617.38</v>
       </c>
       <c r="F4">
-        <v>59976</v>
+        <v>10878.23</v>
       </c>
       <c r="G4">
-        <v>59976</v>
+        <v>9839.129999999999</v>
       </c>
       <c r="H4">
-        <v>59708</v>
+        <v>10448.46</v>
       </c>
       <c r="I4">
-        <v>59708</v>
+        <v>10832.4</v>
       </c>
       <c r="J4">
-        <v>59708</v>
+        <v>9863.139999999999</v>
       </c>
       <c r="K4">
-        <v>59562</v>
+        <v>11359.29</v>
       </c>
       <c r="L4">
-        <v>59562</v>
+        <v>8873.66</v>
       </c>
       <c r="M4">
-        <v>59562</v>
+        <v>9740.299999999999</v>
       </c>
       <c r="N4">
-        <v>63377</v>
+        <v>9747.07</v>
       </c>
       <c r="O4">
-        <v>63377</v>
+        <v>9761.07</v>
       </c>
       <c r="P4">
-        <v>63377</v>
+        <v>8892.02</v>
       </c>
       <c r="Q4">
-        <v>60093</v>
+        <v>7190.89</v>
       </c>
       <c r="R4">
-        <v>60093</v>
+        <v>8957.48</v>
       </c>
       <c r="S4">
-        <v>60093</v>
+        <v>10336.78</v>
       </c>
       <c r="T4">
-        <v>59822</v>
+        <v>10646.85</v>
       </c>
       <c r="U4">
-        <v>59822</v>
+        <v>10383.02</v>
       </c>
       <c r="V4">
-        <v>59822</v>
+        <v>10821.58</v>
       </c>
       <c r="W4">
-        <v>59676</v>
+        <v>11096.43</v>
       </c>
       <c r="X4">
-        <v>59676</v>
+        <v>9962.120000000001</v>
       </c>
       <c r="Y4">
-        <v>59675</v>
+        <v>11286.51</v>
       </c>
       <c r="Z4">
-        <v>45677</v>
+        <v>10799.72</v>
       </c>
       <c r="AA4">
-        <v>45677</v>
+        <v>10246.39</v>
       </c>
       <c r="AB4">
-        <v>45677</v>
+        <v>11889.63</v>
       </c>
       <c r="AC4">
-        <v>45368</v>
+        <v>10902.7</v>
       </c>
       <c r="AD4">
-        <v>45368</v>
+        <v>10643.5</v>
       </c>
       <c r="AE4">
-        <v>45368</v>
+        <v>10780.8</v>
       </c>
       <c r="AF4">
-        <v>45143</v>
+        <v>10776.56</v>
       </c>
       <c r="AG4">
-        <v>45143</v>
+        <v>10984.07</v>
       </c>
       <c r="AH4">
-        <v>45143</v>
+        <v>9903.17</v>
       </c>
       <c r="AI4">
-        <v>45143</v>
+        <v>2152.8</v>
       </c>
       <c r="AJ4">
-        <v>45143</v>
+        <v>5.37</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -984,112 +984,112 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>16943</v>
+        <v>11334.64</v>
       </c>
       <c r="C5">
-        <v>16943</v>
+        <v>10330.03</v>
       </c>
       <c r="D5">
-        <v>16919</v>
+        <v>11853.93</v>
       </c>
       <c r="E5">
-        <v>16754</v>
+        <v>11280.82</v>
       </c>
       <c r="F5">
-        <v>16754</v>
+        <v>11818.32</v>
       </c>
       <c r="G5">
-        <v>16731</v>
+        <v>10687.39</v>
       </c>
       <c r="H5">
-        <v>16542</v>
+        <v>11499.84</v>
       </c>
       <c r="I5">
-        <v>16542</v>
+        <v>12528.49</v>
       </c>
       <c r="J5">
-        <v>16511</v>
+        <v>11287.53</v>
       </c>
       <c r="K5">
-        <v>16469</v>
+        <v>13247.74</v>
       </c>
       <c r="L5">
-        <v>16469</v>
+        <v>11856.51</v>
       </c>
       <c r="M5">
-        <v>16416</v>
+        <v>11406.63</v>
       </c>
       <c r="N5">
-        <v>15796</v>
+        <v>12507.26</v>
       </c>
       <c r="O5">
-        <v>15796</v>
+        <v>11392.4</v>
       </c>
       <c r="P5">
-        <v>15785</v>
+        <v>10996.75</v>
       </c>
       <c r="Q5">
-        <v>15510</v>
+        <v>7530.86</v>
       </c>
       <c r="R5">
-        <v>15510</v>
+        <v>9517.99</v>
       </c>
       <c r="S5">
-        <v>15491</v>
+        <v>11405.33</v>
       </c>
       <c r="T5">
-        <v>15142</v>
+        <v>12047.16</v>
       </c>
       <c r="U5">
-        <v>15142</v>
+        <v>11593.88</v>
       </c>
       <c r="V5">
-        <v>15127</v>
+        <v>11504.06</v>
       </c>
       <c r="W5">
-        <v>14928</v>
+        <v>12713.88</v>
       </c>
       <c r="X5">
-        <v>14928</v>
+        <v>11613.74</v>
       </c>
       <c r="Y5">
-        <v>14901</v>
+        <v>11747.37</v>
       </c>
       <c r="Z5">
-        <v>14050</v>
+        <v>11674.2</v>
       </c>
       <c r="AA5">
-        <v>14050</v>
+        <v>10819.66</v>
       </c>
       <c r="AB5">
-        <v>14034</v>
+        <v>12517.48</v>
       </c>
       <c r="AC5">
-        <v>14118</v>
+        <v>12267.82</v>
       </c>
       <c r="AD5">
-        <v>14118</v>
+        <v>11676.03</v>
       </c>
       <c r="AE5">
-        <v>14106</v>
+        <v>12064.94</v>
       </c>
       <c r="AF5">
-        <v>13983</v>
+        <v>12242.51</v>
       </c>
       <c r="AG5">
-        <v>13983</v>
+        <v>11064.49</v>
       </c>
       <c r="AH5">
-        <v>13842</v>
+        <v>10848.86</v>
       </c>
       <c r="AI5">
-        <v>13880</v>
+        <v>2556.88</v>
       </c>
       <c r="AJ5">
-        <v>13919</v>
+        <v>3.28</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1097,112 +1097,112 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>22191</v>
+        <v>13016.47</v>
       </c>
       <c r="C6">
-        <v>22191</v>
+        <v>12811.57</v>
       </c>
       <c r="D6">
-        <v>22191</v>
+        <v>14421.46</v>
       </c>
       <c r="E6">
-        <v>22052</v>
+        <v>14535.06</v>
       </c>
       <c r="F6">
-        <v>22052</v>
+        <v>14536.68</v>
       </c>
       <c r="G6">
-        <v>22052</v>
+        <v>12494.62</v>
       </c>
       <c r="H6">
-        <v>21920</v>
+        <v>14196.09</v>
       </c>
       <c r="I6">
-        <v>21920</v>
+        <v>14596.44</v>
       </c>
       <c r="J6">
-        <v>21920</v>
+        <v>12898.32</v>
       </c>
       <c r="K6">
-        <v>21856</v>
+        <v>15165.41</v>
       </c>
       <c r="L6">
-        <v>21856</v>
+        <v>13496.73</v>
       </c>
       <c r="M6">
-        <v>21856</v>
+        <v>13891.18</v>
       </c>
       <c r="N6">
-        <v>23146</v>
+        <v>12966.72</v>
       </c>
       <c r="O6">
-        <v>23146</v>
+        <v>12477.19</v>
       </c>
       <c r="P6">
-        <v>23146</v>
+        <v>11779.7</v>
       </c>
       <c r="Q6">
-        <v>21867</v>
+        <v>8901.41</v>
       </c>
       <c r="R6">
-        <v>21867</v>
+        <v>10849.3</v>
       </c>
       <c r="S6">
-        <v>21867</v>
+        <v>12631.51</v>
       </c>
       <c r="T6">
-        <v>21742</v>
+        <v>13165.15</v>
       </c>
       <c r="U6">
-        <v>21742</v>
+        <v>13137.06</v>
       </c>
       <c r="V6">
-        <v>21742</v>
+        <v>13755</v>
       </c>
       <c r="W6">
-        <v>21672</v>
+        <v>15259.46</v>
       </c>
       <c r="X6">
-        <v>21672</v>
+        <v>12929.04</v>
       </c>
       <c r="Y6">
-        <v>21672</v>
+        <v>13869.44</v>
       </c>
       <c r="Z6">
-        <v>18703</v>
+        <v>12804.23</v>
       </c>
       <c r="AA6">
-        <v>18703</v>
+        <v>12689.77</v>
       </c>
       <c r="AB6">
-        <v>18703</v>
+        <v>15421.74</v>
       </c>
       <c r="AC6">
-        <v>18594</v>
+        <v>15030.7</v>
       </c>
       <c r="AD6">
-        <v>18594</v>
+        <v>13784.85</v>
       </c>
       <c r="AE6">
-        <v>18594</v>
+        <v>14892.48</v>
       </c>
       <c r="AF6">
-        <v>18509</v>
+        <v>14018.62</v>
       </c>
       <c r="AG6">
-        <v>18509</v>
+        <v>13882.7</v>
       </c>
       <c r="AH6">
-        <v>18509</v>
+        <v>12139.93</v>
       </c>
       <c r="AI6">
-        <v>18509</v>
+        <v>2013.77</v>
       </c>
       <c r="AJ6">
-        <v>18509</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1210,112 +1210,112 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>7836</v>
+        <v>10863.23</v>
       </c>
       <c r="C7">
-        <v>7836</v>
+        <v>9895.49</v>
       </c>
       <c r="D7">
-        <v>7813</v>
+        <v>10417.7</v>
       </c>
       <c r="E7">
-        <v>7282</v>
+        <v>11778.4</v>
       </c>
       <c r="F7">
-        <v>7282</v>
+        <v>12859.8</v>
       </c>
       <c r="G7">
-        <v>7267</v>
+        <v>9913.85</v>
       </c>
       <c r="H7">
-        <v>7282</v>
+        <v>10475.86</v>
       </c>
       <c r="I7">
-        <v>7282</v>
+        <v>10528.38</v>
       </c>
       <c r="J7">
-        <v>7261</v>
+        <v>10421.64</v>
       </c>
       <c r="K7">
-        <v>7225</v>
+        <v>11502.2</v>
       </c>
       <c r="L7">
-        <v>7225</v>
+        <v>10381.18</v>
       </c>
       <c r="M7">
-        <v>7205</v>
+        <v>11154.5</v>
       </c>
       <c r="N7">
-        <v>7162</v>
+        <v>11008.61</v>
       </c>
       <c r="O7">
-        <v>7162</v>
+        <v>10663.99</v>
       </c>
       <c r="P7">
-        <v>7147</v>
+        <v>10007.34</v>
       </c>
       <c r="Q7">
-        <v>6987</v>
+        <v>7102.78</v>
       </c>
       <c r="R7">
-        <v>6987</v>
+        <v>8123.23</v>
       </c>
       <c r="S7">
-        <v>6977</v>
+        <v>9599.370000000001</v>
       </c>
       <c r="T7">
-        <v>6839</v>
+        <v>10069.49</v>
       </c>
       <c r="U7">
-        <v>6839</v>
+        <v>9350.75</v>
       </c>
       <c r="V7">
-        <v>6823</v>
+        <v>10534.29</v>
       </c>
       <c r="W7">
-        <v>6611</v>
+        <v>12736.04</v>
       </c>
       <c r="X7">
-        <v>6611</v>
+        <v>12169.68</v>
       </c>
       <c r="Y7">
-        <v>6602</v>
+        <v>12601.4</v>
       </c>
       <c r="Z7">
-        <v>7275</v>
+        <v>11424.26</v>
       </c>
       <c r="AA7">
-        <v>7275</v>
+        <v>11398.01</v>
       </c>
       <c r="AB7">
-        <v>7259</v>
+        <v>12850.57</v>
       </c>
       <c r="AC7">
-        <v>7395</v>
+        <v>12502.85</v>
       </c>
       <c r="AD7">
-        <v>7395</v>
+        <v>12467.15</v>
       </c>
       <c r="AE7">
-        <v>7380</v>
+        <v>12327.97</v>
       </c>
       <c r="AF7">
-        <v>7336</v>
+        <v>13083.42</v>
       </c>
       <c r="AG7">
-        <v>7336</v>
+        <v>12320.3</v>
       </c>
       <c r="AH7">
-        <v>7240</v>
+        <v>11402.32</v>
       </c>
       <c r="AI7">
-        <v>7187</v>
+        <v>2188.06</v>
       </c>
       <c r="AJ7">
-        <v>7206</v>
+        <v>2.7</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1323,112 +1323,112 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>10320</v>
+        <v>10833.43</v>
       </c>
       <c r="C8">
-        <v>10320</v>
+        <v>10740.65</v>
       </c>
       <c r="D8">
-        <v>10308</v>
+        <v>11690.59</v>
       </c>
       <c r="E8">
-        <v>10226</v>
+        <v>10899.84</v>
       </c>
       <c r="F8">
-        <v>10226</v>
+        <v>12271.51</v>
       </c>
       <c r="G8">
-        <v>10214</v>
+        <v>10966.22</v>
       </c>
       <c r="H8">
-        <v>10254</v>
+        <v>10497.16</v>
       </c>
       <c r="I8">
-        <v>10254</v>
+        <v>11015.67</v>
       </c>
       <c r="J8">
-        <v>10248</v>
+        <v>11052.71</v>
       </c>
       <c r="K8">
-        <v>10152</v>
+        <v>12383.13</v>
       </c>
       <c r="L8">
-        <v>10152</v>
+        <v>10448.98</v>
       </c>
       <c r="M8">
-        <v>10127</v>
+        <v>10049.61</v>
       </c>
       <c r="N8">
-        <v>10318</v>
+        <v>10621.89</v>
       </c>
       <c r="O8">
-        <v>10318</v>
+        <v>10094.97</v>
       </c>
       <c r="P8">
-        <v>10311</v>
+        <v>9667.51</v>
       </c>
       <c r="Q8">
-        <v>10100</v>
+        <v>6845.95</v>
       </c>
       <c r="R8">
-        <v>10100</v>
+        <v>9391.879999999999</v>
       </c>
       <c r="S8">
-        <v>10093</v>
+        <v>10383.82</v>
       </c>
       <c r="T8">
-        <v>9786</v>
+        <v>10654.77</v>
       </c>
       <c r="U8">
-        <v>9786</v>
+        <v>10284.13</v>
       </c>
       <c r="V8">
-        <v>9782</v>
+        <v>10296.46</v>
       </c>
       <c r="W8">
-        <v>9372</v>
+        <v>10754.56</v>
       </c>
       <c r="X8">
-        <v>9372</v>
+        <v>9214.280000000001</v>
       </c>
       <c r="Y8">
-        <v>9355</v>
+        <v>10043.88</v>
       </c>
       <c r="Z8">
-        <v>8774</v>
+        <v>8764.9</v>
       </c>
       <c r="AA8">
-        <v>8774</v>
+        <v>9177.43</v>
       </c>
       <c r="AB8">
-        <v>8764</v>
+        <v>11396.82</v>
       </c>
       <c r="AC8">
-        <v>8746</v>
+        <v>9860.379999999999</v>
       </c>
       <c r="AD8">
-        <v>8746</v>
+        <v>9641.190000000001</v>
       </c>
       <c r="AE8">
-        <v>8738</v>
+        <v>10377.63</v>
       </c>
       <c r="AF8">
-        <v>8598</v>
+        <v>10161.9</v>
       </c>
       <c r="AG8">
-        <v>8598</v>
+        <v>11333.28</v>
       </c>
       <c r="AH8">
-        <v>8527</v>
+        <v>9577.389999999999</v>
       </c>
       <c r="AI8">
-        <v>8559</v>
+        <v>2407.78</v>
       </c>
       <c r="AJ8">
-        <v>8573</v>
+        <v>4.42</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1436,112 +1436,112 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>50430</v>
+        <v>10106.59</v>
       </c>
       <c r="C9">
-        <v>50430</v>
+        <v>9692.65</v>
       </c>
       <c r="D9">
-        <v>50430</v>
+        <v>10736.26</v>
       </c>
       <c r="E9">
-        <v>50255</v>
+        <v>10472.46</v>
       </c>
       <c r="F9">
-        <v>50255</v>
+        <v>10943.81</v>
       </c>
       <c r="G9">
-        <v>50255</v>
+        <v>9610.26</v>
       </c>
       <c r="H9">
-        <v>50111</v>
+        <v>9977.92</v>
       </c>
       <c r="I9">
-        <v>50111</v>
+        <v>10050.51</v>
       </c>
       <c r="J9">
-        <v>50111</v>
+        <v>9540.65</v>
       </c>
       <c r="K9">
-        <v>49992</v>
+        <v>10964.68</v>
       </c>
       <c r="L9">
-        <v>49992</v>
+        <v>9728.299999999999</v>
       </c>
       <c r="M9">
-        <v>49992</v>
+        <v>9686.190000000001</v>
       </c>
       <c r="N9">
-        <v>55051</v>
+        <v>9516.049999999999</v>
       </c>
       <c r="O9">
-        <v>55051</v>
+        <v>9449.17</v>
       </c>
       <c r="P9">
-        <v>55051</v>
+        <v>8680.4</v>
       </c>
       <c r="Q9">
-        <v>52172</v>
+        <v>6723.73</v>
       </c>
       <c r="R9">
-        <v>52172</v>
+        <v>8320.709999999999</v>
       </c>
       <c r="S9">
-        <v>52172</v>
+        <v>9947.57</v>
       </c>
       <c r="T9">
-        <v>51993</v>
+        <v>10107.86</v>
       </c>
       <c r="U9">
-        <v>51993</v>
+        <v>10152.61</v>
       </c>
       <c r="V9">
-        <v>51993</v>
+        <v>10407.75</v>
       </c>
       <c r="W9">
-        <v>51855</v>
+        <v>11040.52</v>
       </c>
       <c r="X9">
-        <v>51855</v>
+        <v>9852.459999999999</v>
       </c>
       <c r="Y9">
-        <v>51854</v>
+        <v>10695.44</v>
       </c>
       <c r="Z9">
-        <v>48766</v>
+        <v>9719.280000000001</v>
       </c>
       <c r="AA9">
-        <v>48766</v>
+        <v>9630.280000000001</v>
       </c>
       <c r="AB9">
-        <v>48766</v>
+        <v>11086.37</v>
       </c>
       <c r="AC9">
-        <v>48506</v>
+        <v>11037.34</v>
       </c>
       <c r="AD9">
-        <v>48506</v>
+        <v>10663.38</v>
       </c>
       <c r="AE9">
-        <v>48506</v>
+        <v>10757.93</v>
       </c>
       <c r="AF9">
-        <v>48307</v>
+        <v>10678.7</v>
       </c>
       <c r="AG9">
-        <v>48307</v>
+        <v>10805.85</v>
       </c>
       <c r="AH9">
-        <v>48307</v>
+        <v>9343.58</v>
       </c>
       <c r="AI9">
-        <v>48307</v>
+        <v>2182.48</v>
       </c>
       <c r="AJ9">
-        <v>48307</v>
+        <v>5.36</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1549,112 +1549,112 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>31321</v>
+        <v>13117.93</v>
       </c>
       <c r="C10">
-        <v>31321</v>
+        <v>12972.68</v>
       </c>
       <c r="D10">
-        <v>31274</v>
+        <v>13716.85</v>
       </c>
       <c r="E10">
-        <v>31241</v>
+        <v>14886.07</v>
       </c>
       <c r="F10">
-        <v>31241</v>
+        <v>14679.68</v>
       </c>
       <c r="G10">
-        <v>31203</v>
+        <v>13368.87</v>
       </c>
       <c r="H10">
-        <v>30695</v>
+        <v>14097.63</v>
       </c>
       <c r="I10">
-        <v>30695</v>
+        <v>14308.66</v>
       </c>
       <c r="J10">
-        <v>30661</v>
+        <v>13271.25</v>
       </c>
       <c r="K10">
-        <v>30806</v>
+        <v>14942.37</v>
       </c>
       <c r="L10">
-        <v>30806</v>
+        <v>13885.09</v>
       </c>
       <c r="M10">
-        <v>30745</v>
+        <v>13463.17</v>
       </c>
       <c r="N10">
-        <v>30792</v>
+        <v>13724.09</v>
       </c>
       <c r="O10">
-        <v>30792</v>
+        <v>13568.77</v>
       </c>
       <c r="P10">
-        <v>30766</v>
+        <v>11639.97</v>
       </c>
       <c r="Q10">
-        <v>30056</v>
+        <v>8745.940000000001</v>
       </c>
       <c r="R10">
-        <v>30056</v>
+        <v>11542.04</v>
       </c>
       <c r="S10">
-        <v>30008</v>
+        <v>13610.63</v>
       </c>
       <c r="T10">
-        <v>29792</v>
+        <v>14590.16</v>
       </c>
       <c r="U10">
-        <v>29792</v>
+        <v>14591.2</v>
       </c>
       <c r="V10">
-        <v>29747</v>
+        <v>14917.62</v>
       </c>
       <c r="W10">
-        <v>29808</v>
+        <v>15935.36</v>
       </c>
       <c r="X10">
-        <v>29808</v>
+        <v>14907.51</v>
       </c>
       <c r="Y10">
-        <v>29741</v>
+        <v>15552.45</v>
       </c>
       <c r="Z10">
-        <v>30486</v>
+        <v>13620.92</v>
       </c>
       <c r="AA10">
-        <v>30486</v>
+        <v>13119.98</v>
       </c>
       <c r="AB10">
-        <v>30432</v>
+        <v>14811.32</v>
       </c>
       <c r="AC10">
-        <v>30904</v>
+        <v>15747.07</v>
       </c>
       <c r="AD10">
-        <v>30904</v>
+        <v>14407.45</v>
       </c>
       <c r="AE10">
-        <v>30873</v>
+        <v>14833.36</v>
       </c>
       <c r="AF10">
-        <v>30935</v>
+        <v>14324.97</v>
       </c>
       <c r="AG10">
-        <v>30935</v>
+        <v>14220.49</v>
       </c>
       <c r="AH10">
-        <v>30600</v>
+        <v>13055</v>
       </c>
       <c r="AI10">
-        <v>30611</v>
+        <v>2510.43</v>
       </c>
       <c r="AJ10">
-        <v>30696</v>
+        <v>6.59</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1662,112 +1662,112 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>9052</v>
+        <v>10897.66</v>
       </c>
       <c r="C11">
-        <v>9052</v>
+        <v>11269.75</v>
       </c>
       <c r="D11">
-        <v>9052</v>
+        <v>11935.37</v>
       </c>
       <c r="E11">
-        <v>9052</v>
+        <v>12956.84</v>
       </c>
       <c r="F11">
-        <v>9052</v>
+        <v>12834.28</v>
       </c>
       <c r="G11">
-        <v>8322</v>
+        <v>11025.76</v>
       </c>
       <c r="H11">
-        <v>8934</v>
+        <v>13036.38</v>
       </c>
       <c r="I11">
-        <v>8934</v>
+        <v>13509.06</v>
       </c>
       <c r="J11">
-        <v>8930</v>
+        <v>11181.32</v>
       </c>
       <c r="K11">
-        <v>8979</v>
+        <v>13584.49</v>
       </c>
       <c r="L11">
-        <v>8979</v>
+        <v>12037.32</v>
       </c>
       <c r="M11">
-        <v>8964</v>
+        <v>13051.88</v>
       </c>
       <c r="N11">
-        <v>8764</v>
+        <v>13103.14</v>
       </c>
       <c r="O11">
-        <v>8764</v>
+        <v>13258.99</v>
       </c>
       <c r="P11">
-        <v>8751</v>
+        <v>11740.43</v>
       </c>
       <c r="Q11">
-        <v>8705</v>
+        <v>8054.56</v>
       </c>
       <c r="R11">
-        <v>8705</v>
+        <v>10471.66</v>
       </c>
       <c r="S11">
-        <v>8704</v>
+        <v>11902.36</v>
       </c>
       <c r="T11">
-        <v>8698</v>
+        <v>13406.74</v>
       </c>
       <c r="U11">
-        <v>8698</v>
+        <v>12850.43</v>
       </c>
       <c r="V11">
-        <v>8695</v>
+        <v>13127.19</v>
       </c>
       <c r="W11">
-        <v>8585</v>
+        <v>13645.92</v>
       </c>
       <c r="X11">
-        <v>8585</v>
+        <v>13251.64</v>
       </c>
       <c r="Y11">
-        <v>8574</v>
+        <v>14111.22</v>
       </c>
       <c r="Z11">
-        <v>8492</v>
+        <v>12205.82</v>
       </c>
       <c r="AA11">
-        <v>8492</v>
+        <v>11364.37</v>
       </c>
       <c r="AB11">
-        <v>8473</v>
+        <v>13758.24</v>
       </c>
       <c r="AC11">
-        <v>8425</v>
+        <v>12573.55</v>
       </c>
       <c r="AD11">
-        <v>8425</v>
+        <v>13167.96</v>
       </c>
       <c r="AE11">
-        <v>8420</v>
+        <v>13291.9</v>
       </c>
       <c r="AF11">
-        <v>8359</v>
+        <v>11969.25</v>
       </c>
       <c r="AG11">
-        <v>8359</v>
+        <v>12689.03</v>
       </c>
       <c r="AH11">
-        <v>8288</v>
+        <v>11302.18</v>
       </c>
       <c r="AI11">
-        <v>8322</v>
+        <v>2691.58</v>
       </c>
       <c r="AJ11">
-        <v>8335</v>
+        <v>2.41</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1775,112 +1775,112 @@
         <v>47</v>
       </c>
       <c r="B12">
-        <v>18285</v>
+        <v>10840.78</v>
       </c>
       <c r="C12">
-        <v>18285</v>
+        <v>10680.71</v>
       </c>
       <c r="D12">
-        <v>18285</v>
+        <v>11654.67</v>
       </c>
       <c r="E12">
-        <v>18285</v>
+        <v>12354.58</v>
       </c>
       <c r="F12">
-        <v>18285</v>
+        <v>11809.51</v>
       </c>
       <c r="G12">
-        <v>16465</v>
+        <v>10376.55</v>
       </c>
       <c r="H12">
-        <v>18241</v>
+        <v>12855.83</v>
       </c>
       <c r="I12">
-        <v>18241</v>
+        <v>13391.62</v>
       </c>
       <c r="J12">
-        <v>18217</v>
+        <v>12245.81</v>
       </c>
       <c r="K12">
-        <v>18431</v>
+        <v>13497.74</v>
       </c>
       <c r="L12">
-        <v>18431</v>
+        <v>12414.18</v>
       </c>
       <c r="M12">
-        <v>18375</v>
+        <v>12074.24</v>
       </c>
       <c r="N12">
-        <v>18630</v>
+        <v>13371</v>
       </c>
       <c r="O12">
-        <v>18630</v>
+        <v>12727.97</v>
       </c>
       <c r="P12">
-        <v>18597</v>
+        <v>11493.29</v>
       </c>
       <c r="Q12">
-        <v>18454</v>
+        <v>9451.5</v>
       </c>
       <c r="R12">
-        <v>18454</v>
+        <v>10238.76</v>
       </c>
       <c r="S12">
-        <v>18433</v>
+        <v>11140.5</v>
       </c>
       <c r="T12">
-        <v>18186</v>
+        <v>12991.36</v>
       </c>
       <c r="U12">
-        <v>18186</v>
+        <v>12777.15</v>
       </c>
       <c r="V12">
-        <v>18174</v>
+        <v>12385.92</v>
       </c>
       <c r="W12">
-        <v>17772</v>
+        <v>12950.04</v>
       </c>
       <c r="X12">
-        <v>17772</v>
+        <v>12570.48</v>
       </c>
       <c r="Y12">
-        <v>17709</v>
+        <v>13951.02</v>
       </c>
       <c r="Z12">
-        <v>16176</v>
+        <v>12861.57</v>
       </c>
       <c r="AA12">
-        <v>16176</v>
+        <v>11711.16</v>
       </c>
       <c r="AB12">
-        <v>16146</v>
+        <v>13471.68</v>
       </c>
       <c r="AC12">
-        <v>16456</v>
+        <v>12689.24</v>
       </c>
       <c r="AD12">
-        <v>16456</v>
+        <v>12617.92</v>
       </c>
       <c r="AE12">
-        <v>16433</v>
+        <v>12366.89</v>
       </c>
       <c r="AF12">
-        <v>16350</v>
+        <v>12905.14</v>
       </c>
       <c r="AG12">
-        <v>16350</v>
+        <v>12254.81</v>
       </c>
       <c r="AH12">
-        <v>16157</v>
+        <v>11227.46</v>
       </c>
       <c r="AI12">
-        <v>16005</v>
+        <v>2518.44</v>
       </c>
       <c r="AJ12">
-        <v>16046</v>
+        <v>3.59</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1888,112 +1888,112 @@
         <v>48</v>
       </c>
       <c r="B13">
-        <v>6554</v>
+        <v>7926.39</v>
       </c>
       <c r="C13">
-        <v>6554</v>
+        <v>7492.07</v>
       </c>
       <c r="D13">
-        <v>6554</v>
+        <v>8207.879999999999</v>
       </c>
       <c r="E13">
-        <v>6554</v>
+        <v>8521.41</v>
       </c>
       <c r="F13">
-        <v>6554</v>
+        <v>8832.540000000001</v>
       </c>
       <c r="G13">
-        <v>6554</v>
+        <v>8253.01</v>
       </c>
       <c r="H13">
-        <v>6554</v>
+        <v>8308.959999999999</v>
       </c>
       <c r="I13">
-        <v>6554</v>
+        <v>9192.809999999999</v>
       </c>
       <c r="J13">
-        <v>6554</v>
+        <v>9375.139999999999</v>
       </c>
       <c r="K13">
-        <v>6554</v>
+        <v>10281.16</v>
       </c>
       <c r="L13">
-        <v>6554</v>
+        <v>8385.469999999999</v>
       </c>
       <c r="M13">
-        <v>6210</v>
+        <v>9760.129999999999</v>
       </c>
       <c r="N13">
-        <v>6554</v>
+        <v>9765.34</v>
       </c>
       <c r="O13">
-        <v>6554</v>
+        <v>8377.360000000001</v>
       </c>
       <c r="P13">
-        <v>6554</v>
+        <v>7677.92</v>
       </c>
       <c r="Q13">
-        <v>6199</v>
+        <v>5989.79</v>
       </c>
       <c r="R13">
-        <v>6199</v>
+        <v>7503.97</v>
       </c>
       <c r="S13">
-        <v>6199</v>
+        <v>9647.440000000001</v>
       </c>
       <c r="T13">
-        <v>6183</v>
+        <v>8914.82</v>
       </c>
       <c r="U13">
-        <v>6183</v>
+        <v>8893.709999999999</v>
       </c>
       <c r="V13">
-        <v>6183</v>
+        <v>9381.32</v>
       </c>
       <c r="W13">
-        <v>6166</v>
+        <v>10676</v>
       </c>
       <c r="X13">
-        <v>6166</v>
+        <v>9560.35</v>
       </c>
       <c r="Y13">
-        <v>6166</v>
+        <v>9864.34</v>
       </c>
       <c r="Z13">
-        <v>5895</v>
+        <v>9467.889999999999</v>
       </c>
       <c r="AA13">
-        <v>5895</v>
+        <v>8643.02</v>
       </c>
       <c r="AB13">
-        <v>5895</v>
+        <v>8352.4</v>
       </c>
       <c r="AC13">
-        <v>6045</v>
+        <v>9668.75</v>
       </c>
       <c r="AD13">
-        <v>6045</v>
+        <v>9204.01</v>
       </c>
       <c r="AE13">
-        <v>6045</v>
+        <v>8824.24</v>
       </c>
       <c r="AF13">
-        <v>6013</v>
+        <v>9493.92</v>
       </c>
       <c r="AG13">
-        <v>6013</v>
+        <v>8654.85</v>
       </c>
       <c r="AH13">
-        <v>6013</v>
+        <v>7939.14</v>
       </c>
       <c r="AI13">
-        <v>6013</v>
+        <v>1655.69</v>
       </c>
       <c r="AJ13">
-        <v>6013</v>
+        <v>4.77</v>
       </c>
       <c r="AK13">
-        <v>6013</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2001,112 +2001,112 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>12350</v>
+        <v>12729.47</v>
       </c>
       <c r="C14">
-        <v>12350</v>
+        <v>11480.03</v>
       </c>
       <c r="D14">
-        <v>12350</v>
+        <v>13227.01</v>
       </c>
       <c r="E14">
-        <v>12350</v>
+        <v>13383.62</v>
       </c>
       <c r="F14">
-        <v>12350</v>
+        <v>13320.9</v>
       </c>
       <c r="G14">
-        <v>12350</v>
+        <v>12729.95</v>
       </c>
       <c r="H14">
-        <v>12350</v>
+        <v>12995.51</v>
       </c>
       <c r="I14">
-        <v>12350</v>
+        <v>12932.43</v>
       </c>
       <c r="J14">
-        <v>12350</v>
+        <v>12678.68</v>
       </c>
       <c r="K14">
-        <v>12350</v>
+        <v>13935.88</v>
       </c>
       <c r="L14">
-        <v>12350</v>
+        <v>12558.13</v>
       </c>
       <c r="M14">
-        <v>10430</v>
+        <v>12905.52</v>
       </c>
       <c r="N14">
-        <v>12516</v>
+        <v>12494.85</v>
       </c>
       <c r="O14">
-        <v>12516</v>
+        <v>14320.75</v>
       </c>
       <c r="P14">
-        <v>12468</v>
+        <v>11894.92</v>
       </c>
       <c r="Q14">
-        <v>12420</v>
+        <v>9311.620000000001</v>
       </c>
       <c r="R14">
-        <v>12420</v>
+        <v>10097.24</v>
       </c>
       <c r="S14">
-        <v>12361</v>
+        <v>12143.56</v>
       </c>
       <c r="T14">
-        <v>12373</v>
+        <v>12436.15</v>
       </c>
       <c r="U14">
-        <v>12373</v>
+        <v>12892.07</v>
       </c>
       <c r="V14">
-        <v>12329</v>
+        <v>13219.56</v>
       </c>
       <c r="W14">
-        <v>12225</v>
+        <v>14733.18</v>
       </c>
       <c r="X14">
-        <v>12225</v>
+        <v>13910.1</v>
       </c>
       <c r="Y14">
-        <v>12159</v>
+        <v>15921.67</v>
       </c>
       <c r="Z14">
-        <v>11241</v>
+        <v>13442.43</v>
       </c>
       <c r="AA14">
-        <v>11241</v>
+        <v>12446.14</v>
       </c>
       <c r="AB14">
-        <v>11174</v>
+        <v>14685.4</v>
       </c>
       <c r="AC14">
-        <v>11375</v>
+        <v>14726.97</v>
       </c>
       <c r="AD14">
-        <v>11375</v>
+        <v>13903.52</v>
       </c>
       <c r="AE14">
-        <v>11324</v>
+        <v>14521.66</v>
       </c>
       <c r="AF14">
-        <v>11276</v>
+        <v>14225.99</v>
       </c>
       <c r="AG14">
-        <v>11276</v>
+        <v>12900.08</v>
       </c>
       <c r="AH14">
-        <v>11097</v>
+        <v>12236.31</v>
       </c>
       <c r="AI14">
-        <v>11056</v>
+        <v>3012.08</v>
       </c>
       <c r="AJ14">
-        <v>11105</v>
+        <v>4.41</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>
